--- a/Model2/excel/auxiliary/correction.xlsx
+++ b/Model2/excel/auxiliary/correction.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wout\Documents\School\2e master\2e semester\Thesis\Model2\excel\auxiliary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wout\Documents\GitHub\thesis\Model2\excel\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="diagonal" sheetId="1" r:id="rId1"/>
     <sheet name="lower_tri" sheetId="2" r:id="rId2"/>
     <sheet name="upper_tri" sheetId="3" r:id="rId3"/>
+    <sheet name="linear" sheetId="4" r:id="rId4"/>
+    <sheet name="ownelast" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4233,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:L25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,4 +6170,3885 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.4</v>
+      </c>
+      <c r="K2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="L2">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="M2">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="Q2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="R2">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="U2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="V2">
+        <v>0.8</v>
+      </c>
+      <c r="W2">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.4</v>
+      </c>
+      <c r="L3">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="M3">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="N3">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="R3">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="S3">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.6</v>
+      </c>
+      <c r="V3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="N4">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="O4">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="S4">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="T4">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.6</v>
+      </c>
+      <c r="W4">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="X4">
+        <v>0.8</v>
+      </c>
+      <c r="Y4">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="O5">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="P5">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="T5">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="U5">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.6</v>
+      </c>
+      <c r="X5">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Y5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L6">
+        <v>0.6</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>0.4</v>
+      </c>
+      <c r="O6">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="P6">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="Q6">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="U6">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="V6">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>0.6</v>
+      </c>
+      <c r="Y6">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="M7">
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.4</v>
+      </c>
+      <c r="P7">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="Q7">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="R7">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="U7">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="V7">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="W7">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L8">
+        <v>0.8</v>
+      </c>
+      <c r="M8">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="N8">
+        <v>0.6</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>0.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="R8">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="S8">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="V8">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="W8">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="X8">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="Y8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M9">
+        <v>0.8</v>
+      </c>
+      <c r="N9">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="O9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+      <c r="R9">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="S9">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="T9">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="W9">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="X9">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="Y9">
+        <v>0.39999999999999897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N10">
+        <v>0.8</v>
+      </c>
+      <c r="O10">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="P10">
+        <v>0.6</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>0.4</v>
+      </c>
+      <c r="S10">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="T10">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="U10">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="X10">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="Y10">
+        <v>0.29999999999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="C11">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O11">
+        <v>0.8</v>
+      </c>
+      <c r="P11">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Q11">
+        <v>0.6</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.4</v>
+      </c>
+      <c r="T11">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="U11">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="V11">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="Y11">
+        <v>0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="C12">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D12">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P12">
+        <v>0.8</v>
+      </c>
+      <c r="Q12">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R12">
+        <v>0.6</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12">
+        <v>0.4</v>
+      </c>
+      <c r="U12">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="V12">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="W12">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>9.9999999999999103E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="D13">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="E13">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Q13">
+        <v>0.8</v>
+      </c>
+      <c r="R13">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="S13">
+        <v>0.6</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>0.4</v>
+      </c>
+      <c r="V13">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="W13">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="X13">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="E14">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="F14">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R14">
+        <v>0.8</v>
+      </c>
+      <c r="S14">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="T14">
+        <v>0.6</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.4</v>
+      </c>
+      <c r="W14">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="X14">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="Y14">
+        <v>9.9999999999998992E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="F15">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G15">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="J15">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K15">
+        <v>0.8</v>
+      </c>
+      <c r="L15">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="S15">
+        <v>0.8</v>
+      </c>
+      <c r="T15">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="U15">
+        <v>0.6</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <v>0.4</v>
+      </c>
+      <c r="X15">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="Y15">
+        <v>0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="C16">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="G16">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="H16">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="V16">
+        <v>0.6</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>0.4</v>
+      </c>
+      <c r="Y16">
+        <v>0.29999999999999899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="C17">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="D17">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="H17">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="I17">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>0.6</v>
+      </c>
+      <c r="L17">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+      <c r="N17">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="U17">
+        <v>0.8</v>
+      </c>
+      <c r="V17">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="W17">
+        <v>0.6</v>
+      </c>
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+      <c r="Y17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D18">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="E18">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="I18">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="J18">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <v>0.6</v>
+      </c>
+      <c r="M18">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="N18">
+        <v>0.8</v>
+      </c>
+      <c r="O18">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="V18">
+        <v>0.8</v>
+      </c>
+      <c r="W18">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="X18">
+        <v>0.6</v>
+      </c>
+      <c r="Y18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="E19">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="F19">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="J19">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="K19">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.6</v>
+      </c>
+      <c r="N19">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="O19">
+        <v>0.8</v>
+      </c>
+      <c r="P19">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="W19">
+        <v>0.8</v>
+      </c>
+      <c r="X19">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Y19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.6</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="F20">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="G20">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="K20">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="L20">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <v>0.6</v>
+      </c>
+      <c r="O20">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="P20">
+        <v>0.8</v>
+      </c>
+      <c r="Q20">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="X20">
+        <v>0.8</v>
+      </c>
+      <c r="Y20">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
+      </c>
+      <c r="F21">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G21">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="H21">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="L21">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="M21">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="N21">
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <v>0.6</v>
+      </c>
+      <c r="P21">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Q21">
+        <v>0.8</v>
+      </c>
+      <c r="R21">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Y21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D22">
+        <v>0.6</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="G22">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="H22">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="I22">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="M22">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="N22">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>0.6</v>
+      </c>
+      <c r="Q22">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R22">
+        <v>0.8</v>
+      </c>
+      <c r="S22">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C23">
+        <v>0.8</v>
+      </c>
+      <c r="D23">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E23">
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="I23">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="J23">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="N23">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="O23">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0.6</v>
+      </c>
+      <c r="R23">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="S23">
+        <v>0.8</v>
+      </c>
+      <c r="T23">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D24">
+        <v>0.8</v>
+      </c>
+      <c r="E24">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.4</v>
+      </c>
+      <c r="I24">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="J24">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="K24">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="O24">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="P24">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>0.6</v>
+      </c>
+      <c r="S24">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="T24">
+        <v>0.8</v>
+      </c>
+      <c r="U24">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+      <c r="F25">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G25">
+        <v>0.6</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0.4</v>
+      </c>
+      <c r="J25">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="K25">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="L25">
+        <v>9.9999999999998992E-2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.9999999999999103E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="P25">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="Q25">
+        <v>0.39999999999999897</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.6</v>
+      </c>
+      <c r="T25">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="U25">
+        <v>0.8</v>
+      </c>
+      <c r="V25">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.7</v>
+      </c>
+      <c r="I2">
+        <v>0.7</v>
+      </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.7</v>
+      </c>
+      <c r="N2">
+        <v>0.7</v>
+      </c>
+      <c r="O2">
+        <v>0.7</v>
+      </c>
+      <c r="P2">
+        <v>0.7</v>
+      </c>
+      <c r="Q2">
+        <v>0.7</v>
+      </c>
+      <c r="R2">
+        <v>0.7</v>
+      </c>
+      <c r="S2">
+        <v>0.7</v>
+      </c>
+      <c r="T2">
+        <v>0.7</v>
+      </c>
+      <c r="U2">
+        <v>0.7</v>
+      </c>
+      <c r="V2">
+        <v>0.7</v>
+      </c>
+      <c r="W2">
+        <v>0.7</v>
+      </c>
+      <c r="X2">
+        <v>0.7</v>
+      </c>
+      <c r="Y2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <v>0.8</v>
+      </c>
+      <c r="O3">
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <v>0.8</v>
+      </c>
+      <c r="Q3">
+        <v>0.8</v>
+      </c>
+      <c r="R3">
+        <v>0.8</v>
+      </c>
+      <c r="S3">
+        <v>0.8</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.8</v>
+      </c>
+      <c r="V3">
+        <v>0.8</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>0.8</v>
+      </c>
+      <c r="Y3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.05</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.05</v>
+      </c>
+      <c r="F4">
+        <v>1.05</v>
+      </c>
+      <c r="G4">
+        <v>1.05</v>
+      </c>
+      <c r="H4">
+        <v>1.05</v>
+      </c>
+      <c r="I4">
+        <v>1.05</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>1.05</v>
+      </c>
+      <c r="L4">
+        <v>1.05</v>
+      </c>
+      <c r="M4">
+        <v>1.05</v>
+      </c>
+      <c r="N4">
+        <v>1.05</v>
+      </c>
+      <c r="O4">
+        <v>1.05</v>
+      </c>
+      <c r="P4">
+        <v>1.05</v>
+      </c>
+      <c r="Q4">
+        <v>1.05</v>
+      </c>
+      <c r="R4">
+        <v>1.05</v>
+      </c>
+      <c r="S4">
+        <v>1.05</v>
+      </c>
+      <c r="T4">
+        <v>1.05</v>
+      </c>
+      <c r="U4">
+        <v>1.05</v>
+      </c>
+      <c r="V4">
+        <v>1.05</v>
+      </c>
+      <c r="W4">
+        <v>1.05</v>
+      </c>
+      <c r="X4">
+        <v>1.05</v>
+      </c>
+      <c r="Y4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.7</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>0.7</v>
+      </c>
+      <c r="N5">
+        <v>0.7</v>
+      </c>
+      <c r="O5">
+        <v>0.7</v>
+      </c>
+      <c r="P5">
+        <v>0.7</v>
+      </c>
+      <c r="Q5">
+        <v>0.7</v>
+      </c>
+      <c r="R5">
+        <v>0.7</v>
+      </c>
+      <c r="S5">
+        <v>0.7</v>
+      </c>
+      <c r="T5">
+        <v>0.7</v>
+      </c>
+      <c r="U5">
+        <v>0.7</v>
+      </c>
+      <c r="V5">
+        <v>0.7</v>
+      </c>
+      <c r="W5">
+        <v>0.7</v>
+      </c>
+      <c r="X5">
+        <v>0.7</v>
+      </c>
+      <c r="Y5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="W6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.65</v>
+      </c>
+      <c r="C7">
+        <v>0.65</v>
+      </c>
+      <c r="D7">
+        <v>0.65</v>
+      </c>
+      <c r="E7">
+        <v>0.65</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.65</v>
+      </c>
+      <c r="I7">
+        <v>0.65</v>
+      </c>
+      <c r="J7">
+        <v>0.65</v>
+      </c>
+      <c r="K7">
+        <v>0.65</v>
+      </c>
+      <c r="L7">
+        <v>0.65</v>
+      </c>
+      <c r="M7">
+        <v>0.65</v>
+      </c>
+      <c r="N7">
+        <v>0.65</v>
+      </c>
+      <c r="O7">
+        <v>0.65</v>
+      </c>
+      <c r="P7">
+        <v>0.65</v>
+      </c>
+      <c r="Q7">
+        <v>0.65</v>
+      </c>
+      <c r="R7">
+        <v>0.65</v>
+      </c>
+      <c r="S7">
+        <v>0.65</v>
+      </c>
+      <c r="T7">
+        <v>0.65</v>
+      </c>
+      <c r="U7">
+        <v>0.65</v>
+      </c>
+      <c r="V7">
+        <v>0.65</v>
+      </c>
+      <c r="W7">
+        <v>0.65</v>
+      </c>
+      <c r="X7">
+        <v>0.65</v>
+      </c>
+      <c r="Y7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="R8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="S8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="T8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="V8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="W8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="X8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+      <c r="C9">
+        <v>1.2</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="F9">
+        <v>1.2</v>
+      </c>
+      <c r="G9">
+        <v>1.2</v>
+      </c>
+      <c r="H9">
+        <v>1.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.2</v>
+      </c>
+      <c r="K9">
+        <v>1.2</v>
+      </c>
+      <c r="L9">
+        <v>1.2</v>
+      </c>
+      <c r="M9">
+        <v>1.2</v>
+      </c>
+      <c r="N9">
+        <v>1.2</v>
+      </c>
+      <c r="O9">
+        <v>1.2</v>
+      </c>
+      <c r="P9">
+        <v>1.2</v>
+      </c>
+      <c r="Q9">
+        <v>1.2</v>
+      </c>
+      <c r="R9">
+        <v>1.2</v>
+      </c>
+      <c r="S9">
+        <v>1.2</v>
+      </c>
+      <c r="T9">
+        <v>1.2</v>
+      </c>
+      <c r="U9">
+        <v>1.2</v>
+      </c>
+      <c r="V9">
+        <v>1.2</v>
+      </c>
+      <c r="W9">
+        <v>1.2</v>
+      </c>
+      <c r="X9">
+        <v>1.2</v>
+      </c>
+      <c r="Y9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.65</v>
+      </c>
+      <c r="C10">
+        <v>0.65</v>
+      </c>
+      <c r="D10">
+        <v>0.65</v>
+      </c>
+      <c r="E10">
+        <v>0.65</v>
+      </c>
+      <c r="F10">
+        <v>0.65</v>
+      </c>
+      <c r="G10">
+        <v>0.65</v>
+      </c>
+      <c r="H10">
+        <v>0.65</v>
+      </c>
+      <c r="I10">
+        <v>0.65</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.65</v>
+      </c>
+      <c r="L10">
+        <v>0.65</v>
+      </c>
+      <c r="M10">
+        <v>0.65</v>
+      </c>
+      <c r="N10">
+        <v>0.65</v>
+      </c>
+      <c r="O10">
+        <v>0.65</v>
+      </c>
+      <c r="P10">
+        <v>0.65</v>
+      </c>
+      <c r="Q10">
+        <v>0.65</v>
+      </c>
+      <c r="R10">
+        <v>0.65</v>
+      </c>
+      <c r="S10">
+        <v>0.65</v>
+      </c>
+      <c r="T10">
+        <v>0.65</v>
+      </c>
+      <c r="U10">
+        <v>0.65</v>
+      </c>
+      <c r="V10">
+        <v>0.65</v>
+      </c>
+      <c r="W10">
+        <v>0.65</v>
+      </c>
+      <c r="X10">
+        <v>0.65</v>
+      </c>
+      <c r="Y10">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.5</v>
+      </c>
+      <c r="N11">
+        <v>0.5</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="N12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="P12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Q12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="T12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="V12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="W12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="X12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Y12">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="K13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="L13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="O13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="P13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="R13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="S13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="U13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="V13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="W13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="X13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+      <c r="C14">
+        <v>0.85</v>
+      </c>
+      <c r="D14">
+        <v>0.85</v>
+      </c>
+      <c r="E14">
+        <v>0.85</v>
+      </c>
+      <c r="F14">
+        <v>0.85</v>
+      </c>
+      <c r="G14">
+        <v>0.85</v>
+      </c>
+      <c r="H14">
+        <v>0.85</v>
+      </c>
+      <c r="I14">
+        <v>0.85</v>
+      </c>
+      <c r="J14">
+        <v>0.85</v>
+      </c>
+      <c r="K14">
+        <v>0.85</v>
+      </c>
+      <c r="L14">
+        <v>0.85</v>
+      </c>
+      <c r="M14">
+        <v>0.85</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.85</v>
+      </c>
+      <c r="P14">
+        <v>0.85</v>
+      </c>
+      <c r="Q14">
+        <v>0.85</v>
+      </c>
+      <c r="R14">
+        <v>0.85</v>
+      </c>
+      <c r="S14">
+        <v>0.85</v>
+      </c>
+      <c r="T14">
+        <v>0.85</v>
+      </c>
+      <c r="U14">
+        <v>0.85</v>
+      </c>
+      <c r="V14">
+        <v>0.85</v>
+      </c>
+      <c r="W14">
+        <v>0.85</v>
+      </c>
+      <c r="X14">
+        <v>0.85</v>
+      </c>
+      <c r="Y14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1.175</v>
+      </c>
+      <c r="C16">
+        <v>1.175</v>
+      </c>
+      <c r="D16">
+        <v>1.175</v>
+      </c>
+      <c r="E16">
+        <v>1.175</v>
+      </c>
+      <c r="F16">
+        <v>1.175</v>
+      </c>
+      <c r="G16">
+        <v>1.175</v>
+      </c>
+      <c r="H16">
+        <v>1.175</v>
+      </c>
+      <c r="I16">
+        <v>1.175</v>
+      </c>
+      <c r="J16">
+        <v>1.175</v>
+      </c>
+      <c r="K16">
+        <v>1.175</v>
+      </c>
+      <c r="L16">
+        <v>1.175</v>
+      </c>
+      <c r="M16">
+        <v>1.175</v>
+      </c>
+      <c r="N16">
+        <v>1.175</v>
+      </c>
+      <c r="O16">
+        <v>1.175</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.175</v>
+      </c>
+      <c r="R16">
+        <v>1.175</v>
+      </c>
+      <c r="S16">
+        <v>1.175</v>
+      </c>
+      <c r="T16">
+        <v>1.175</v>
+      </c>
+      <c r="U16">
+        <v>1.175</v>
+      </c>
+      <c r="V16">
+        <v>1.175</v>
+      </c>
+      <c r="W16">
+        <v>1.175</v>
+      </c>
+      <c r="X16">
+        <v>1.175</v>
+      </c>
+      <c r="Y16">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.1</v>
+      </c>
+      <c r="C17">
+        <v>2.1</v>
+      </c>
+      <c r="D17">
+        <v>2.1</v>
+      </c>
+      <c r="E17">
+        <v>2.1</v>
+      </c>
+      <c r="F17">
+        <v>2.1</v>
+      </c>
+      <c r="G17">
+        <v>2.1</v>
+      </c>
+      <c r="H17">
+        <v>2.1</v>
+      </c>
+      <c r="I17">
+        <v>2.1</v>
+      </c>
+      <c r="J17">
+        <v>2.1</v>
+      </c>
+      <c r="K17">
+        <v>2.1</v>
+      </c>
+      <c r="L17">
+        <v>2.1</v>
+      </c>
+      <c r="M17">
+        <v>2.1</v>
+      </c>
+      <c r="N17">
+        <v>2.1</v>
+      </c>
+      <c r="O17">
+        <v>2.1</v>
+      </c>
+      <c r="P17">
+        <v>2.1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>2.1</v>
+      </c>
+      <c r="T17">
+        <v>2.1</v>
+      </c>
+      <c r="U17">
+        <v>2.1</v>
+      </c>
+      <c r="V17">
+        <v>2.1</v>
+      </c>
+      <c r="W17">
+        <v>2.1</v>
+      </c>
+      <c r="X17">
+        <v>2.1</v>
+      </c>
+      <c r="Y17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18">
+        <v>0.7</v>
+      </c>
+      <c r="E18">
+        <v>0.7</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+      <c r="G18">
+        <v>0.7</v>
+      </c>
+      <c r="H18">
+        <v>0.7</v>
+      </c>
+      <c r="I18">
+        <v>0.7</v>
+      </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
+      <c r="K18">
+        <v>0.7</v>
+      </c>
+      <c r="L18">
+        <v>0.7</v>
+      </c>
+      <c r="M18">
+        <v>0.7</v>
+      </c>
+      <c r="N18">
+        <v>0.7</v>
+      </c>
+      <c r="O18">
+        <v>0.7</v>
+      </c>
+      <c r="P18">
+        <v>0.7</v>
+      </c>
+      <c r="Q18">
+        <v>0.7</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7</v>
+      </c>
+      <c r="T18">
+        <v>0.7</v>
+      </c>
+      <c r="U18">
+        <v>0.7</v>
+      </c>
+      <c r="V18">
+        <v>0.7</v>
+      </c>
+      <c r="W18">
+        <v>0.7</v>
+      </c>
+      <c r="X18">
+        <v>0.7</v>
+      </c>
+      <c r="Y18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="L19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="M19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="O19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="P19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="U19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="V19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="W19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="X19">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="Y19">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="L21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="N21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="O21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="R21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="S21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="W21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="X21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Y21">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="T22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="U22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="X22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Y22">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y23">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="O24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="Q24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="R24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="U24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="V24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="W24">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>